--- a/xlsxPCES/examples/flows.xlsx
+++ b/xlsxPCES/examples/flows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicol/Dropbox/github-repos/pcesapps/flows/xlsx/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicol/Dropbox/github-repos/pcesbld/xlsxPCES/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4591C114-F483-1E45-AEE7-7F991386223A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437B2323-7501-784B-B7D7-B4D12A789E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="760" windowWidth="34200" windowHeight="16920" activeTab="2" xr2:uid="{7E753834-245C-A346-8630-DEF93455D7FF}"/>
+    <workbookView xWindow="0" yWindow="2820" windowWidth="34200" windowHeight="16920" xr2:uid="{7E753834-245C-A346-8630-DEF93455D7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="topo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="netParams" sheetId="5" r:id="rId5"/>
     <sheet name="experiments" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1178,7 +1177,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1195,7 +1194,6 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1573,17 +1571,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95325CDA-052A-9A47-A8FD-348C19C2091E}">
   <dimension ref="A2:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" customWidth="1"/>
     <col min="8" max="8" width="8.83203125" customWidth="1"/>
@@ -2154,7 +2152,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FA9935-1338-5743-9994-8B53C9940146}">
-  <dimension ref="A2:N46"/>
+  <dimension ref="A2:M46"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
@@ -2334,7 +2332,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -2351,12 +2349,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -2396,9 +2394,8 @@
       <c r="M20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="16"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -2423,9 +2420,8 @@
       <c r="L21" t="s">
         <v>118</v>
       </c>
-      <c r="N21" s="16"/>
-    </row>
-    <row r="23" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
@@ -2457,7 +2453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -2474,7 +2470,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,7 +2499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -2520,7 +2516,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -2540,7 +2536,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>72</v>
       </c>
@@ -2572,7 +2568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>117</v>
       </c>
@@ -2747,7 +2743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E788907-EF7B-7245-8B51-85EEFFE3B34D}">
   <dimension ref="A2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>

--- a/xlsxPCES/examples/flows.xlsx
+++ b/xlsxPCES/examples/flows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicol/Dropbox/github-repos/pcesbld/xlsxPCES/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437B2323-7501-784B-B7D7-B4D12A789E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A21854-1854-DB40-928F-A8FEEE03AB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2820" windowWidth="34200" windowHeight="16920" xr2:uid="{7E753834-245C-A346-8630-DEF93455D7FF}"/>
+    <workbookView xWindow="6520" yWindow="11940" windowWidth="34200" windowHeight="20240" xr2:uid="{7E753834-245C-A346-8630-DEF93455D7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="topo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="netParams" sheetId="5" r:id="rId5"/>
     <sheet name="experiments" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1571,17 +1572,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95325CDA-052A-9A47-A8FD-348C19C2091E}">
   <dimension ref="A2:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" customWidth="1"/>
     <col min="8" max="8" width="8.83203125" customWidth="1"/>
